--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H2">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I2">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J2">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.153988</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N2">
-        <v>0.461964</v>
+        <v>0.002755</v>
       </c>
       <c r="O2">
-        <v>0.7159318881850409</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P2">
-        <v>0.7908135229379472</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q2">
-        <v>0.025824249564</v>
+        <v>0.0001172772888888889</v>
       </c>
       <c r="R2">
-        <v>0.232418246076</v>
+        <v>0.0010554956</v>
       </c>
       <c r="S2">
-        <v>0.2424679902855006</v>
+        <v>0.0008591600049369252</v>
       </c>
       <c r="T2">
-        <v>0.2678285026295706</v>
+        <v>0.0010680048814202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,51 +599,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H3">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I3">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J3">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0610995</v>
+        <v>0.153988</v>
       </c>
       <c r="N3">
-        <v>0.122199</v>
+        <v>0.461964</v>
       </c>
       <c r="O3">
-        <v>0.2840681118149591</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P3">
-        <v>0.2091864770620529</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q3">
-        <v>0.0102465694485</v>
+        <v>0.01966529418666666</v>
       </c>
       <c r="R3">
-        <v>0.061479416691</v>
+        <v>0.17698764768</v>
       </c>
       <c r="S3">
-        <v>0.09620667176954664</v>
+        <v>0.1440656960147665</v>
       </c>
       <c r="T3">
-        <v>0.07084615942547667</v>
+        <v>0.1790852294157536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -655,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04909466666666667</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H4">
-        <v>0.147284</v>
+        <v>0.38312</v>
       </c>
       <c r="I4">
-        <v>0.09914622661513824</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J4">
-        <v>0.09914622661513824</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.153988</v>
+        <v>0.022297</v>
       </c>
       <c r="N4">
-        <v>0.461964</v>
+        <v>0.044594</v>
       </c>
       <c r="O4">
-        <v>0.7159318881850409</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P4">
-        <v>0.7908135229379472</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q4">
-        <v>0.007559989530666666</v>
+        <v>0.002847475546666667</v>
       </c>
       <c r="R4">
-        <v>0.068039905776</v>
+        <v>0.01708485328</v>
       </c>
       <c r="S4">
-        <v>0.07098194522699788</v>
+        <v>0.02086028017794405</v>
       </c>
       <c r="T4">
-        <v>0.07840617675552153</v>
+        <v>0.01728733563776856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.370511</v>
+      </c>
+      <c r="H5">
+        <v>0.741022</v>
+      </c>
+      <c r="I5">
+        <v>0.4809867660085082</v>
+      </c>
+      <c r="J5">
+        <v>0.3818850647690823</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.04909466666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.147284</v>
-      </c>
-      <c r="I5">
-        <v>0.09914622661513824</v>
-      </c>
-      <c r="J5">
-        <v>0.09914622661513824</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
       <c r="M5">
-        <v>0.0610995</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N5">
-        <v>0.122199</v>
+        <v>0.002755</v>
       </c>
       <c r="O5">
-        <v>0.2840681118149591</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P5">
-        <v>0.2091864770620529</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q5">
-        <v>0.002999659586</v>
+        <v>0.0003402526016666667</v>
       </c>
       <c r="R5">
-        <v>0.017997957516</v>
+        <v>0.00204151561</v>
       </c>
       <c r="S5">
-        <v>0.02816428138814036</v>
+        <v>0.002492651643786687</v>
       </c>
       <c r="T5">
-        <v>0.02074004985961671</v>
+        <v>0.002065710777927958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -785,19 +782,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2783766666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H6">
-        <v>0.8351299999999999</v>
+        <v>0.741022</v>
       </c>
       <c r="I6">
-        <v>0.5621791113298145</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J6">
-        <v>0.5621791113298145</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,27 +809,27 @@
         <v>0.461964</v>
       </c>
       <c r="O6">
-        <v>0.7159318881850409</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P6">
-        <v>0.7908135229379472</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q6">
-        <v>0.04286666614666666</v>
+        <v>0.05705424786799999</v>
       </c>
       <c r="R6">
-        <v>0.38579999532</v>
+        <v>0.342325487208</v>
       </c>
       <c r="S6">
-        <v>0.4024819526725424</v>
+        <v>0.4179728943630753</v>
       </c>
       <c r="T6">
-        <v>0.444578843552855</v>
+        <v>0.3463825821469005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2783766666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H7">
-        <v>0.8351299999999999</v>
+        <v>0.741022</v>
       </c>
       <c r="I7">
-        <v>0.5621791113298145</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J7">
-        <v>0.5621791113298145</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +865,214 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0610995</v>
+        <v>0.022297</v>
       </c>
       <c r="N7">
-        <v>0.122199</v>
+        <v>0.044594</v>
       </c>
       <c r="O7">
-        <v>0.2840681118149591</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P7">
-        <v>0.2091864770620529</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q7">
-        <v>0.017008675145</v>
+        <v>0.008261283766999999</v>
       </c>
       <c r="R7">
-        <v>0.10205205087</v>
+        <v>0.033045135068</v>
       </c>
       <c r="S7">
-        <v>0.159697158657272</v>
+        <v>0.06052122000164618</v>
       </c>
       <c r="T7">
-        <v>0.1176002677769595</v>
+        <v>0.03343677184425384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2720966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.81629</v>
+      </c>
+      <c r="I8">
+        <v>0.3532280977938443</v>
+      </c>
+      <c r="J8">
+        <v>0.4206743652959753</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0009183333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.002755</v>
+      </c>
+      <c r="O8">
+        <v>0.005182370534790543</v>
+      </c>
+      <c r="P8">
+        <v>0.005409247358696911</v>
+      </c>
+      <c r="Q8">
+        <v>0.0002498754388888889</v>
+      </c>
+      <c r="R8">
+        <v>0.00224887895</v>
+      </c>
+      <c r="S8">
+        <v>0.001830558886066931</v>
+      </c>
+      <c r="T8">
+        <v>0.002275531699348754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2720966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.81629</v>
+      </c>
+      <c r="I9">
+        <v>0.3532280977938443</v>
+      </c>
+      <c r="J9">
+        <v>0.4206743652959753</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.153988</v>
+      </c>
+      <c r="N9">
+        <v>0.461964</v>
+      </c>
+      <c r="O9">
+        <v>0.8689904253117887</v>
+      </c>
+      <c r="P9">
+        <v>0.9070335923096405</v>
+      </c>
+      <c r="Q9">
+        <v>0.04189962150666666</v>
+      </c>
+      <c r="R9">
+        <v>0.37709659356</v>
+      </c>
+      <c r="S9">
+        <v>0.3069518349339469</v>
+      </c>
+      <c r="T9">
+        <v>0.3815657807469865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2720966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.81629</v>
+      </c>
+      <c r="I10">
+        <v>0.3532280977938443</v>
+      </c>
+      <c r="J10">
+        <v>0.4206743652959753</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.022297</v>
+      </c>
+      <c r="N10">
+        <v>0.044594</v>
+      </c>
+      <c r="O10">
+        <v>0.1258272041534207</v>
+      </c>
+      <c r="P10">
+        <v>0.08755716033166246</v>
+      </c>
+      <c r="Q10">
+        <v>0.006066939376666667</v>
+      </c>
+      <c r="R10">
+        <v>0.03640163626</v>
+      </c>
+      <c r="S10">
+        <v>0.04444570397383052</v>
+      </c>
+      <c r="T10">
+        <v>0.03683305284964006</v>
       </c>
     </row>
   </sheetData>
